--- a/biology/Médecine/George_Soper/George_Soper.xlsx
+++ b/biology/Médecine/George_Soper/George_Soper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Albert Soper II (2 février 1870 - 17 juin 1948) est un ingénieur sanitaire américain. 
-Il est notamment célèbre pour avoir identifié Mary Mallon, aussi connue sous le nom de Typhoid Mary, comme la première porteuse saine de la fièvre typhoïde[1]. 
+Il est notamment célèbre pour avoir identifié Mary Mallon, aussi connue sous le nom de Typhoid Mary, comme la première porteuse saine de la fièvre typhoïde. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Soper est le fils de George Albert Soper (1837-1869) et de Georgianna Lydia Buckman (décédée en 1882)[2]. 
-Il reçoit son diplôme du Rensselaer Polytechnic Institute en 1895. Il devient docteur de l'Université Columbia en 1899[3]. En 1907 il est présenté comme « Major, US Army », à son entrée au New-York City Department of Health Centennial newspapers. Il se fait remarquer en découvrant la porteuse saine « Typhoid Mary »[4]. De 1923 à 1928 il est directeur général de l’American Society for the Control of Cancer, plus tard connue sous le nom d’American Cancer Society[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soper est le fils de George Albert Soper (1837-1869) et de Georgianna Lydia Buckman (décédée en 1882). 
+Il reçoit son diplôme du Rensselaer Polytechnic Institute en 1895. Il devient docteur de l'Université Columbia en 1899. En 1907 il est présenté comme « Major, US Army », à son entrée au New-York City Department of Health Centennial newspapers. Il se fait remarquer en découvrant la porteuse saine « Typhoid Mary ». De 1923 à 1928 il est directeur général de l’American Society for the Control of Cancer, plus tard connue sous le nom d’American Cancer Society.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications traduites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Leçons d'une pandémie », Science, 1919. Publié par Allia, 2020 (traduction Danielle Orhan), 48 p.  (ISBN 9791030413113).
 « Marie Typhoïde », Bulletin of the New York Academy of Medicine, 1939. Publié par Allia, 2020, (traduction Danielle Orhan) 48 p.  (ISBN 9791030413175)</t>
